--- a/database/industries/urea/kermasha/cost/yearly.xlsx
+++ b/database/industries/urea/kermasha/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\kermasha\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\kermasha\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535787B4-33E9-4355-BDCA-5633C36E15F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D5D285-BE3B-445C-B93F-5CDCDB67DDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>NM3</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>مقدار خرید طی دوره</t>
@@ -635,12 +632,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -650,7 +647,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,7 +659,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -674,7 +671,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,7 +681,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -696,7 +693,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -708,7 +705,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -718,7 +715,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -740,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -750,95 +747,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1169685</v>
+        <v>2214862</v>
       </c>
       <c r="F10" s="9">
-        <v>2214862</v>
+        <v>2734511</v>
       </c>
       <c r="G10" s="9">
-        <v>2734511</v>
+        <v>4739492</v>
       </c>
       <c r="H10" s="9">
-        <v>4739492</v>
+        <v>15018423</v>
       </c>
       <c r="I10" s="9">
-        <v>15018423</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13279766</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>98609</v>
+        <v>122826</v>
       </c>
       <c r="F11" s="11">
-        <v>122826</v>
+        <v>163928</v>
       </c>
       <c r="G11" s="11">
-        <v>163928</v>
+        <v>235590</v>
       </c>
       <c r="H11" s="11">
-        <v>235590</v>
+        <v>341234</v>
       </c>
       <c r="I11" s="11">
-        <v>341234</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>554944</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1668113</v>
+        <v>1765091</v>
       </c>
       <c r="F12" s="9">
-        <v>1765091</v>
+        <v>2494937</v>
       </c>
       <c r="G12" s="9">
-        <v>2494937</v>
+        <v>3197294</v>
       </c>
       <c r="H12" s="9">
-        <v>3197294</v>
+        <v>7241278</v>
       </c>
       <c r="I12" s="9">
-        <v>7241278</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12087404</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>2936407</v>
+        <v>4102779</v>
       </c>
       <c r="F13" s="13">
-        <v>4102779</v>
+        <v>5393376</v>
       </c>
       <c r="G13" s="13">
-        <v>5393376</v>
+        <v>8172376</v>
       </c>
       <c r="H13" s="13">
-        <v>8172376</v>
+        <v>22600935</v>
       </c>
       <c r="I13" s="13">
-        <v>22600935</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25922114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -848,41 +845,41 @@
         <v>0</v>
       </c>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>-41480</v>
       </c>
       <c r="G14" s="9">
-        <v>-41480</v>
+        <v>-3002</v>
       </c>
       <c r="H14" s="9">
-        <v>-3002</v>
+        <v>-11324</v>
       </c>
       <c r="I14" s="9">
-        <v>-11324</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-60782</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>2936407</v>
+        <v>4102779</v>
       </c>
       <c r="F15" s="13">
-        <v>4102779</v>
+        <v>5351896</v>
       </c>
       <c r="G15" s="13">
-        <v>5351896</v>
+        <v>8169374</v>
       </c>
       <c r="H15" s="13">
-        <v>8169374</v>
+        <v>22589611</v>
       </c>
       <c r="I15" s="13">
-        <v>22589611</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25861332</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -904,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -923,98 +920,98 @@
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-21058</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>2936407</v>
+        <v>4102779</v>
       </c>
       <c r="F18" s="15">
-        <v>4102779</v>
+        <v>5351896</v>
       </c>
       <c r="G18" s="15">
-        <v>5351896</v>
+        <v>8169374</v>
       </c>
       <c r="H18" s="15">
-        <v>8169374</v>
+        <v>22589611</v>
       </c>
       <c r="I18" s="15">
-        <v>22589611</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25840274</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>89208</v>
+        <v>250893</v>
       </c>
       <c r="F19" s="11">
-        <v>250893</v>
+        <v>516698</v>
       </c>
       <c r="G19" s="11">
-        <v>516698</v>
+        <v>150145</v>
       </c>
       <c r="H19" s="11">
-        <v>150145</v>
+        <v>715957</v>
       </c>
       <c r="I19" s="11">
-        <v>715957</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1850267</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-247544</v>
+        <v>-525702</v>
       </c>
       <c r="F20" s="9">
-        <v>-525702</v>
+        <v>-150146</v>
       </c>
       <c r="G20" s="9">
-        <v>-150146</v>
+        <v>-715957</v>
       </c>
       <c r="H20" s="9">
-        <v>-715957</v>
+        <v>-1850267</v>
       </c>
       <c r="I20" s="9">
-        <v>-1850267</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2217271</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>2778071</v>
+        <v>3827970</v>
       </c>
       <c r="F21" s="13">
-        <v>3827970</v>
+        <v>5718448</v>
       </c>
       <c r="G21" s="13">
-        <v>5718448</v>
+        <v>7603562</v>
       </c>
       <c r="H21" s="13">
-        <v>7603562</v>
+        <v>21455301</v>
       </c>
       <c r="I21" s="13">
-        <v>21455301</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25473270</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1036,29 +1033,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>2778071</v>
+        <v>3827970</v>
       </c>
       <c r="F23" s="13">
-        <v>3827970</v>
+        <v>5718448</v>
       </c>
       <c r="G23" s="13">
-        <v>5718448</v>
+        <v>7603562</v>
       </c>
       <c r="H23" s="13">
-        <v>7603562</v>
+        <v>21455301</v>
       </c>
       <c r="I23" s="13">
-        <v>21455301</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>25473270</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1068,7 +1065,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1078,7 +1075,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1088,7 +1085,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1110,7 +1107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1120,7 +1117,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1128,8 +1125,8 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
+      <c r="E29" s="9">
+        <v>0</v>
       </c>
       <c r="F29" s="9">
         <v>0</v>
@@ -1144,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1176,7 +1173,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1186,7 +1183,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1196,9 +1193,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1218,7 +1215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1228,7 +1225,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>24</v>
       </c>
@@ -1236,45 +1233,45 @@
         <v>25</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
-        <v>26</v>
+      <c r="E36" s="9">
+        <v>294929189</v>
       </c>
       <c r="F36" s="9">
-        <v>294929189</v>
+        <v>271140880</v>
       </c>
       <c r="G36" s="9">
-        <v>271140880</v>
+        <v>293215587</v>
       </c>
       <c r="H36" s="9">
-        <v>293215587</v>
+        <v>288892075</v>
       </c>
       <c r="I36" s="9">
-        <v>288892075</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>251592030</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>0</v>
+        <v>294929189</v>
       </c>
       <c r="F37" s="13">
-        <v>294929189</v>
+        <v>271140880</v>
       </c>
       <c r="G37" s="13">
-        <v>271140880</v>
+        <v>293215587</v>
       </c>
       <c r="H37" s="13">
-        <v>293215587</v>
+        <v>288892075</v>
       </c>
       <c r="I37" s="13">
-        <v>288892075</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>251592030</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1284,7 +1281,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1294,7 +1291,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1304,9 +1301,9 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1326,7 +1323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1336,7 +1333,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
@@ -1344,45 +1341,45 @@
         <v>25</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>26</v>
+      <c r="E43" s="9">
+        <v>294929189</v>
       </c>
       <c r="F43" s="9">
-        <v>294929189</v>
+        <v>271140880</v>
       </c>
       <c r="G43" s="9">
-        <v>271140880</v>
+        <v>293215587</v>
       </c>
       <c r="H43" s="9">
-        <v>293215587</v>
+        <v>288892075</v>
       </c>
       <c r="I43" s="9">
-        <v>288892075</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>251592030</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>0</v>
+        <v>294929189</v>
       </c>
       <c r="F44" s="13">
-        <v>294929189</v>
+        <v>271140880</v>
       </c>
       <c r="G44" s="13">
-        <v>271140880</v>
+        <v>293215587</v>
       </c>
       <c r="H44" s="13">
-        <v>293215587</v>
+        <v>288892075</v>
       </c>
       <c r="I44" s="13">
-        <v>288892075</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>251592030</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1392,7 +1389,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1402,7 +1399,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1412,9 +1409,9 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -1434,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1444,7 +1441,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>24</v>
       </c>
@@ -1452,8 +1449,8 @@
         <v>25</v>
       </c>
       <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
-        <v>26</v>
+      <c r="E50" s="9">
+        <v>0</v>
       </c>
       <c r="F50" s="9">
         <v>0</v>
@@ -1468,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>12</v>
       </c>
@@ -1490,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1500,7 +1497,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1510,7 +1507,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1520,9 +1517,9 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1542,7 +1539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1552,16 +1549,16 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>26</v>
+      <c r="E57" s="9">
+        <v>0</v>
       </c>
       <c r="F57" s="9">
         <v>0</v>
@@ -1576,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>12</v>
       </c>
@@ -1598,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1608,7 +1605,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1618,7 +1615,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1628,9 +1625,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1650,7 +1647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1660,53 +1657,53 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>26</v>
+      <c r="E64" s="9">
+        <v>2214862</v>
       </c>
       <c r="F64" s="9">
-        <v>2214862</v>
+        <v>2734511</v>
       </c>
       <c r="G64" s="9">
-        <v>2734511</v>
+        <v>4739492</v>
       </c>
       <c r="H64" s="9">
-        <v>4739492</v>
+        <v>15018423</v>
       </c>
       <c r="I64" s="9">
-        <v>15018423</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13279766</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>0</v>
+        <v>2214862</v>
       </c>
       <c r="F65" s="13">
-        <v>2214862</v>
+        <v>2734511</v>
       </c>
       <c r="G65" s="13">
-        <v>2734511</v>
+        <v>4739492</v>
       </c>
       <c r="H65" s="13">
-        <v>4739492</v>
+        <v>15018423</v>
       </c>
       <c r="I65" s="13">
-        <v>15018423</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13279766</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1716,7 +1713,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1726,7 +1723,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1736,9 +1733,9 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -1758,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1768,53 +1765,53 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>26</v>
+      <c r="E71" s="9">
+        <v>2214862</v>
       </c>
       <c r="F71" s="9">
-        <v>2214862</v>
+        <v>2734511</v>
       </c>
       <c r="G71" s="9">
-        <v>2734511</v>
+        <v>4739492</v>
       </c>
       <c r="H71" s="9">
-        <v>4739492</v>
+        <v>15018423</v>
       </c>
       <c r="I71" s="9">
-        <v>15018423</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13279766</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13">
-        <v>0</v>
+        <v>2214862</v>
       </c>
       <c r="F72" s="13">
-        <v>2214862</v>
+        <v>2734511</v>
       </c>
       <c r="G72" s="13">
-        <v>2734511</v>
+        <v>4739492</v>
       </c>
       <c r="H72" s="13">
-        <v>4739492</v>
+        <v>15018423</v>
       </c>
       <c r="I72" s="13">
-        <v>15018423</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13279766</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1824,7 +1821,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1834,7 +1831,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1844,9 +1841,9 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -1866,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1876,16 +1873,16 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>26</v>
+      <c r="E78" s="9">
+        <v>0</v>
       </c>
       <c r="F78" s="9">
         <v>0</v>
@@ -1900,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>12</v>
       </c>
@@ -1922,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1932,7 +1929,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1942,7 +1939,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1952,9 +1949,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -1974,7 +1971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1984,31 +1981,31 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>26</v>
+      <c r="E85" s="9">
+        <v>7510</v>
       </c>
       <c r="F85" s="9">
-        <v>7510</v>
+        <v>10085</v>
       </c>
       <c r="G85" s="9">
-        <v>10085</v>
+        <v>16164</v>
       </c>
       <c r="H85" s="9">
-        <v>16164</v>
+        <v>51986</v>
       </c>
       <c r="I85" s="9">
-        <v>51986</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>52783</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2018,7 +2015,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2028,7 +2025,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2038,9 +2035,9 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2060,7 +2057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2070,31 +2067,31 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>26</v>
+      <c r="E91" s="9">
+        <v>7510</v>
       </c>
       <c r="F91" s="9">
-        <v>7510</v>
+        <v>10085</v>
       </c>
       <c r="G91" s="9">
-        <v>10085</v>
+        <v>16164</v>
       </c>
       <c r="H91" s="9">
-        <v>16164</v>
+        <v>51986</v>
       </c>
       <c r="I91" s="9">
-        <v>51986</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>52783</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2104,7 +2101,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2114,7 +2111,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2124,9 +2121,9 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2146,7 +2143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2156,9 +2153,9 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -2178,9 +2175,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -2200,9 +2197,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -2222,9 +2219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -2244,97 +2241,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>145135</v>
+        <v>176251</v>
       </c>
       <c r="F101" s="9">
-        <v>176251</v>
+        <v>267535</v>
       </c>
       <c r="G101" s="9">
-        <v>267535</v>
+        <v>329297</v>
       </c>
       <c r="H101" s="9">
-        <v>329297</v>
+        <v>688758</v>
       </c>
       <c r="I101" s="9">
-        <v>688758</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>869416</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>350231</v>
+        <v>338661</v>
       </c>
       <c r="F102" s="11">
-        <v>338661</v>
+        <v>607834</v>
       </c>
       <c r="G102" s="11">
-        <v>607834</v>
+        <v>663558</v>
       </c>
       <c r="H102" s="11">
-        <v>663558</v>
+        <v>3439252</v>
       </c>
       <c r="I102" s="11">
-        <v>3439252</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6266564</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>379663</v>
+        <v>360907</v>
       </c>
       <c r="F103" s="9">
-        <v>360907</v>
+        <v>381428</v>
       </c>
       <c r="G103" s="9">
-        <v>381428</v>
+        <v>399618</v>
       </c>
       <c r="H103" s="9">
-        <v>399618</v>
+        <v>443342</v>
       </c>
       <c r="I103" s="9">
-        <v>443342</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>515377</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>399728</v>
+        <v>449404</v>
       </c>
       <c r="F104" s="11">
-        <v>449404</v>
+        <v>607660</v>
       </c>
       <c r="G104" s="11">
-        <v>607660</v>
+        <v>876474</v>
       </c>
       <c r="H104" s="11">
-        <v>876474</v>
+        <v>1378123</v>
       </c>
       <c r="I104" s="11">
-        <v>1378123</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2224096</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -2354,65 +2351,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>393356</v>
+        <v>439868</v>
       </c>
       <c r="F106" s="11">
-        <v>439868</v>
+        <v>630480</v>
       </c>
       <c r="G106" s="11">
-        <v>630480</v>
+        <v>928347</v>
       </c>
       <c r="H106" s="11">
-        <v>928347</v>
+        <v>1291803</v>
       </c>
       <c r="I106" s="11">
-        <v>1291803</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2211951</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>1668113</v>
+        <v>1765091</v>
       </c>
       <c r="F107" s="15">
-        <v>1765091</v>
+        <v>2494937</v>
       </c>
       <c r="G107" s="15">
-        <v>2494937</v>
+        <v>3197294</v>
       </c>
       <c r="H107" s="15">
-        <v>3197294</v>
+        <v>7241278</v>
       </c>
       <c r="I107" s="15">
-        <v>7241278</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>12087404</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
